--- a/data/trans_camb/P29_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P29_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +526,18 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume diariamente raciones de verdura u hortalizas al día</t>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>-7,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>-14,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,74</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>11,06</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,42</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,59</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 5,37</t>
+          <t>-24,32; 3,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 9,56</t>
+          <t>-17,54; 11,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 20,86</t>
+          <t>-32,75; -0,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 17,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 14,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,31; 28,69</t>
+          <t>-2,64; 16,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 10,42</t>
+          <t>-1,63; 15,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 9,65</t>
+          <t>0,44; 23,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,6; 22,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-9,07; 7,84</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,98; 11,7</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-11,66; 9,1</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,23%</t>
+          <t>-20,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,45%</t>
+          <t>-0,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>-37,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>30,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>47,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15,43%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,76; 16,07</t>
+          <t>-48,6; 11,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,95; 29,43</t>
+          <t>-34,65; 38,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 65,25</t>
+          <t>-67,36; -2,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,37; 93,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 79,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,32; 151,99</t>
+          <t>-9,71; 93,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 39,7</t>
+          <t>-6,06; 87,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 36,53</t>
+          <t>0,76; 140,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,05; 89,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-25,54; 31,45</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-14,49; 46,87</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-32,04; 36,2</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,57</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,2</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,38</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,2</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 8,85</t>
+          <t>-3,96; 10,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 8,59</t>
+          <t>-1,6; 13,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 20,52</t>
+          <t>-10,4; 4,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 3,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 5,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,9; 19,44</t>
+          <t>-6,04; 6,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 4,92</t>
+          <t>-3,07; 9,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 5,89</t>
+          <t>-0,71; 12,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,85; 18,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 6,8</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 9,96</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; 7,04</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>-9,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,72%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>27,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>49,39%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,9%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 27,84</t>
+          <t>-10,79; 38,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 27,08</t>
+          <t>-4,23; 50,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,29; 66,05</t>
+          <t>-29,01; 19,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 17,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,9; 25,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,4; 90,9</t>
+          <t>-22,91; 33,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 18,56</t>
+          <t>-12,61; 51,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 22,34</t>
+          <t>-3,6; 65,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,94; 69,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-9,36; 29,04</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 43,0</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-12,47; 30,33</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,28</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,25</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,22</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,25</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 3,6</t>
+          <t>-10,11; 5,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 8,61</t>
+          <t>-6,0; 8,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 24,42</t>
+          <t>-3,4; 12,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 8,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 11,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 18,28</t>
+          <t>-1,04; 8,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,89</t>
+          <t>3,25; 12,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 8,89</t>
+          <t>-4,04; 5,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,51; 19,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 5,7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 9,43</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 7,7</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,84%</t>
+          <t>-9,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>65,92%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>59,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>73,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>70,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>28,97%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>13,68%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,37; 17,52</t>
+          <t>-33,59; 24,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 40,13</t>
+          <t>-18,96; 43,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,18; 111,26</t>
+          <t>-12,46; 58,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 84,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,91; 113,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,59; 165,19</t>
+          <t>-8,04; 100,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 29,25</t>
+          <t>24,29; 155,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 54,06</t>
+          <t>-29,26; 59,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>37,1; 112,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-16,54; 36,64</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 59,56</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-12,33; 49,51</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,87</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,8</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-2,87</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 4,12</t>
+          <t>-7,21; 9,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 6,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,74; 19,54</t>
+          <t>-12,69; 2,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 6,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,62; 20,24</t>
+          <t>-2,93; 10,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 5,7</t>
+          <t>-6,81; 5,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,62; 18,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 7,08</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-7,7; 2,63</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,69%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>-14,33%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>81,74%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>-2,9%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>60,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-9,48%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 14,08</t>
+          <t>-17,82; 27,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 21,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,52; 64,96</t>
+          <t>-32,13; 9,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,45; 36,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,07; 41,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>56,88; 108,43</t>
+          <t>-11,42; 47,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 17,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,23; 23,61</t>
+          <t>-25,97; 26,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>45,93; 77,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 25,51</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-23,47; 9,39</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,92</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4,53</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,26</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,95</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 2,77</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 5,07</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-8,29; 0,47</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 5,6</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 7,55</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 6,93</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 3,42</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 5,77</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 2,66</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-3,38%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3,87%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-11,96%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>11,99%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>22,1%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2,72%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>11,13%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-0,97%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-16,16; 9,2</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; 16,9</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-24,17; 1,67</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; 29,71</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 40,5</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 36,41</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-6,56; 13,59</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 22,57</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-10,97; 10,5</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
